--- a/translations_added_keys.xlsx
+++ b/translations_added_keys.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="972">
   <si>
     <t xml:space="preserve">settings.english</t>
   </si>
@@ -85,21 +85,39 @@
     <t xml:space="preserve">auth.enter_email</t>
   </si>
   <si>
+    <t xml:space="preserve">Email eingeben</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter Email</t>
   </si>
   <si>
+    <t xml:space="preserve">Inserir E-mail</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.enter_password</t>
   </si>
   <si>
+    <t xml:space="preserve">Passwort eingeben</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Inserir senha</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.or</t>
   </si>
   <si>
+    <t xml:space="preserve">Oder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Or</t>
   </si>
   <si>
+    <t xml:space="preserve">Ou</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.continue_google</t>
   </si>
   <si>
@@ -115,9 +133,15 @@
     <t xml:space="preserve">auth.delete_your_account_description</t>
   </si>
   <si>
+    <t xml:space="preserve">Sie werden all Ihren Fortschritt und Ihre Daten verlieren.</t>
+  </si>
+  <si>
     <t xml:space="preserve">You will lose all your progress and data.</t>
   </si>
   <si>
+    <t xml:space="preserve">Você perderá todo o seu progresso e dados.</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.continue_apple</t>
   </si>
   <si>
@@ -133,9 +157,15 @@
     <t xml:space="preserve">auth.delete_my_account</t>
   </si>
   <si>
+    <t xml:space="preserve">Meinen Account löschen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delete my account</t>
   </si>
   <si>
+    <t xml:space="preserve">Apagar a minha conta</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.agree_with</t>
   </si>
   <si>
@@ -151,9 +181,15 @@
     <t xml:space="preserve">auth.terms_of_policy</t>
   </si>
   <si>
+    <t xml:space="preserve">Unsere Datenschutzerklärung finden sie hier</t>
+  </si>
+  <si>
     <t xml:space="preserve">Terms of Use &amp; Provacy Policy</t>
   </si>
   <si>
+    <t xml:space="preserve">Termos da Política de Uso e Privacidade</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.signup</t>
   </si>
   <si>
@@ -181,9 +217,15 @@
     <t xml:space="preserve">auth.enter_your_email_to_get_the_reset_link</t>
   </si>
   <si>
+    <t xml:space="preserve">Geben Sie Ihre E-Mail-Adresse ein, um den Link zum Zurücksetzen zu erhalten</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter your email to get the reset link</t>
   </si>
   <si>
+    <t xml:space="preserve">Digite seu e-mail para obter o link de redefinição</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.login</t>
   </si>
   <si>
@@ -199,15 +241,27 @@
     <t xml:space="preserve">auth.check_your_email</t>
   </si>
   <si>
+    <t xml:space="preserve">Check deine E-Mails</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check your email</t>
   </si>
   <si>
+    <t xml:space="preserve">Verifique seu e-mail</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.forgot_password</t>
   </si>
   <si>
+    <t xml:space="preserve">Passwort vergessen?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Forgot password?</t>
   </si>
   <si>
+    <t xml:space="preserve">Esqueceu sua senha?</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.dont_have_an_acount</t>
   </si>
   <si>
@@ -304,7 +358,7 @@
     <t xml:space="preserve">Criar mais conexões e vínculos mais fortes</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_less_conflicts</t>
+    <t xml:space="preserve">profile.less_conflicts</t>
   </si>
   <si>
     <t xml:space="preserve">Weniger Konflikte</t>
@@ -316,7 +370,7 @@
     <t xml:space="preserve">Menos conflitos</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_boost_intimacy</t>
+    <t xml:space="preserve">profile.boost_intimacy</t>
   </si>
   <si>
     <t xml:space="preserve">mehr Intimität &amp; besserer</t>
@@ -343,7 +397,7 @@
     <t xml:space="preserve">profile.more_fun</t>
   </si>
   <si>
-    <t xml:space="preserve">Mehr Spaß und Aufregung</t>
+    <t xml:space="preserve">Mehr Spaß und Aufregung         </t>
   </si>
   <si>
     <t xml:space="preserve">More fun and excitement</t>
@@ -448,7 +502,7 @@
     <t xml:space="preserve">Permitir notificações</t>
   </si>
   <si>
-    <t xml:space="preserve">profile_playfull_effective</t>
+    <t xml:space="preserve">profile.playfull_effective</t>
   </si>
   <si>
     <t xml:space="preserve">Statistic</t>
@@ -1693,15 +1747,27 @@
     <t xml:space="preserve">challenge.specialChallengeTitle</t>
   </si>
   <si>
+    <t xml:space="preserve">Sonderangebote</t>
+  </si>
+  <si>
     <t xml:space="preserve">Specials</t>
   </si>
   <si>
+    <t xml:space="preserve">Promoções</t>
+  </si>
+  <si>
     <t xml:space="preserve">challenge.tab_special</t>
   </si>
   <si>
+    <t xml:space="preserve">Spezial</t>
+  </si>
+  <si>
     <t xml:space="preserve">Special</t>
   </si>
   <si>
+    <t xml:space="preserve">Especial</t>
+  </si>
+  <si>
     <t xml:space="preserve">challenge.title</t>
   </si>
   <si>
@@ -1714,15 +1780,27 @@
     <t xml:space="preserve">challenge.tab_core</t>
   </si>
   <si>
+    <t xml:space="preserve">Kern</t>
+  </si>
+  <si>
     <t xml:space="preserve">Core</t>
   </si>
   <si>
+    <t xml:space="preserve">Núcleo</t>
+  </si>
+  <si>
     <t xml:space="preserve">challenge.lockedPopupTitle</t>
   </si>
   <si>
+    <t xml:space="preserve">Entschuldigung, diese Herausforderungen sind noch gesperrt.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sorry, these challenges are still locked</t>
   </si>
   <si>
+    <t xml:space="preserve">Desculpe, estes desafios ainda estão bloqueados.</t>
+  </si>
+  <si>
     <t xml:space="preserve">home.see_all</t>
   </si>
   <si>
@@ -1894,9 +1972,15 @@
     <t xml:space="preserve">auth.current_password</t>
   </si>
   <si>
+    <t xml:space="preserve">Aktuelles Passwort</t>
+  </si>
+  <si>
     <t xml:space="preserve">Current password</t>
   </si>
   <si>
+    <t xml:space="preserve">Senha atual</t>
+  </si>
+  <si>
     <t xml:space="preserve">auth.enter_current_password</t>
   </si>
   <si>
@@ -1924,9 +2008,15 @@
     <t xml:space="preserve">auth.new_assword</t>
   </si>
   <si>
+    <t xml:space="preserve">Neues Passwort</t>
+  </si>
+  <si>
     <t xml:space="preserve">New password</t>
   </si>
   <si>
+    <t xml:space="preserve">Nova senha</t>
+  </si>
+  <si>
     <t xml:space="preserve">repeat password</t>
   </si>
   <si>
@@ -2017,18 +2107,36 @@
     <t xml:space="preserve">categories.lockPopupTitle</t>
   </si>
   <si>
+    <t xml:space="preserve">Tut mir leid, die Kategorie ist gesperrt.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sorry, the category is locked</t>
   </si>
   <si>
+    <t xml:space="preserve">Desculpe, a categoria está bloqueada.</t>
+  </si>
+  <si>
     <t xml:space="preserve">categories.lockPopupText</t>
   </si>
   <si>
+    <t xml:space="preserve">Um die nächste Stufe freizuschalten, müssen Sie die Fragen und Herausforderungen im aktuellen Schritt vollständig beantworten und beherrschen. Dieser Ansatz (4 Schritte zur Liebe) ist so konzipiert, dass Sie nicht vorzeitig weiterkommen, damit Sie den maximalen therapeutischen Effekt aus jeder Stufe ziehen können.</t>
+  </si>
+  <si>
     <t xml:space="preserve">In order to unlock the next stage, you need to fully answer and master the questions and challenges in the current step. This approach (4-Steps to Love) is designed to ensure you don’t move forward prematurely, so you can get the maximum therapeutic effect from each stage.</t>
   </si>
   <si>
+    <t xml:space="preserve">Para desbloquear a próxima etapa, você precisa responder e dominar completamente as perguntas e desafios no passo atual. Esta abordagem (4 Passos para o Amor) é projetada para garantir que você não avance prematuramente, para que possa obter o máximo efeito terapêutico de cada estágio.</t>
+  </si>
+  <si>
     <t xml:space="preserve">challenge.lockedPopupText</t>
   </si>
   <si>
+    <t xml:space="preserve">Um die nächste Stufe freizuschalten, müssen Sie die Fragen und Herausforderungen des aktuellen Schrittes vollständig beantworten und beherrschen. Dieser Ansatz (4 Schritte zur Liebe) ist so konzipiert, dass Sie nicht vorzeitig weitergehen, damit Sie den maximalen therapeutischen Effekt aus jeder Stufe ziehen können.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para desbloquear a próxima etapa, você precisa responder e dominar completamente as perguntas e desafios do passo atual. Esta abordagem (4 Passos para o Amor) é projetada para garantir que você não avance prematuramente, para que possa obter o máximo efeito terapêutico de cada estágio.</t>
+  </si>
+  <si>
     <t xml:space="preserve">common.add_categories</t>
   </si>
   <si>
@@ -2044,6 +2152,9 @@
     <t xml:space="preserve">common.to_get_known_deeper_level</t>
   </si>
   <si>
+    <t xml:space="preserve">um Sie auf einer tieferen Ebene kennenzulernen</t>
+  </si>
+  <si>
     <t xml:space="preserve">to get to know you on a deeper level</t>
   </si>
   <si>
@@ -2689,9 +2800,15 @@
     <t xml:space="preserve">auth.deleted_account</t>
   </si>
   <si>
+    <t xml:space="preserve">Dein Konto wurde gelöscht</t>
+  </si>
+  <si>
     <t xml:space="preserve">Your account has been deleted</t>
   </si>
   <si>
+    <t xml:space="preserve">A sua conta foi deletada</t>
+  </si>
+  <si>
     <t xml:space="preserve">common.something_went_wrong_try_again</t>
   </si>
   <si>
@@ -2710,6 +2827,9 @@
     <t xml:space="preserve">Forgot Password</t>
   </si>
   <si>
+    <t xml:space="preserve">Geben Sie Ihre E-Mail-Adresse ein, um das Passwort zurückzusetzen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter your email to reset password.</t>
   </si>
   <si>
@@ -2719,6 +2839,9 @@
     <t xml:space="preserve">auth.send_link</t>
   </si>
   <si>
+    <t xml:space="preserve">Link senden</t>
+  </si>
+  <si>
     <t xml:space="preserve">Send link</t>
   </si>
   <si>
@@ -2731,6 +2854,9 @@
     <t xml:space="preserve">Quotes of the day</t>
   </si>
   <si>
+    <t xml:space="preserve">Zeig mir das Buch?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Show me the book?</t>
   </si>
   <si>
@@ -2740,6 +2866,9 @@
     <t xml:space="preserve">common.dont_show_again_message</t>
   </si>
   <si>
+    <t xml:space="preserve">Diese Nachricht nicht noch einmal anzeigen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dont show this message again</t>
   </si>
   <si>
@@ -2752,12 +2881,21 @@
     <t xml:space="preserve">Delete Account</t>
   </si>
   <si>
+    <t xml:space="preserve">Löschen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delete</t>
   </si>
   <si>
     <t xml:space="preserve">Excluir</t>
   </si>
   <si>
+    <t xml:space="preserve">Um </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Allgemeine Geschäftsbedingungen und Datenschutzerklärung</t>
+  </si>
+  <si>
     <t xml:space="preserve">Terms of Use &amp; Privacy Policy</t>
   </si>
   <si>
@@ -2767,6 +2905,9 @@
     <t xml:space="preserve">common.are_you_sure_to_delete_account</t>
   </si>
   <si>
+    <t xml:space="preserve">Sind Sie sicher, dass Sie Ihr Konto dauerhaft löschen möchten?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Are you sure, that you want to permanently erase your Account? </t>
   </si>
   <si>
@@ -2776,6 +2917,9 @@
     <t xml:space="preserve">auth.delete_your_account</t>
   </si>
   <si>
+    <t xml:space="preserve">Konto löschen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delete your account?</t>
   </si>
   <si>
@@ -2785,7 +2929,13 @@
     <t xml:space="preserve">auth.delete_your_account_question</t>
   </si>
   <si>
+    <t xml:space="preserve">Konto löschen?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delete your account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excluir sua conta</t>
   </si>
 </sst>
 </file>
@@ -2801,6 +2951,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2823,12 +2974,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2893,7 +3046,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2918,24 +3071,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3080,16 +3225,16 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A258" activeCellId="0" sqref="A258"/>
+      <selection pane="bottomLeft" activeCell="C264" activeCellId="0" sqref="C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.93"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="2" width="21.21"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="2" width="90.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="90.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="53.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="51.15"/>
   </cols>
@@ -3180,2640 +3325,2692 @@
         <v>20</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="D6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3"/>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="3"/>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3"/>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3"/>
+      <c r="C12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="3"/>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="3"/>
+      <c r="C20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>155</v>
+      <c r="A44" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9" t="s">
-        <v>159</v>
+      <c r="A45" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="C46" s="3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="s">
-        <v>167</v>
+      <c r="A47" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9" t="s">
-        <v>179</v>
+      <c r="A50" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9" t="s">
-        <v>195</v>
+      <c r="A57" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>197</v>
+        <v>214</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
-        <v>203</v>
+      <c r="A59" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>218</v>
+        <v>235</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
-        <v>271</v>
+      <c r="A77" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9" t="s">
-        <v>276</v>
+      <c r="A78" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9" t="s">
-        <v>280</v>
+      <c r="A79" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9" t="s">
-        <v>284</v>
+      <c r="A80" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9" t="s">
-        <v>288</v>
+      <c r="A81" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9" t="s">
-        <v>292</v>
+      <c r="A82" s="5" t="s">
+        <v>310</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="s">
-        <v>296</v>
+      <c r="A83" s="5" t="s">
+        <v>314</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="8" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="s">
-        <v>305</v>
+      <c r="A85" s="5" t="s">
+        <v>323</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9" t="s">
-        <v>309</v>
+      <c r="A86" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9" t="s">
-        <v>317</v>
+      <c r="A88" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>318</v>
+        <v>336</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="C89" s="3" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9" t="s">
-        <v>324</v>
+      <c r="A90" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>326</v>
+        <v>343</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9" t="s">
-        <v>328</v>
+      <c r="A91" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>332</v>
+        <v>347</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="85.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9" t="s">
-        <v>333</v>
+      <c r="A92" s="5" t="s">
+        <v>351</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>336</v>
+        <v>347</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9" t="s">
-        <v>337</v>
+      <c r="A93" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>338</v>
+        <v>347</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>356</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>340</v>
+        <v>357</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9" t="s">
-        <v>341</v>
+      <c r="A94" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>344</v>
+        <v>347</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="s">
-        <v>345</v>
+      <c r="A95" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D95" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E95" s="14" t="s">
-        <v>348</v>
+      <c r="C95" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="s">
-        <v>349</v>
+      <c r="A96" s="5" t="s">
+        <v>367</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>352</v>
+        <v>347</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="s">
-        <v>353</v>
+      <c r="A97" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9" t="s">
-        <v>357</v>
+      <c r="A98" s="5" t="s">
+        <v>375</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>360</v>
+        <v>347</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9" t="s">
-        <v>361</v>
+      <c r="A99" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>364</v>
+        <v>347</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9" t="s">
-        <v>365</v>
+      <c r="A100" s="5" t="s">
+        <v>383</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>366</v>
+        <v>347</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>384</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>368</v>
+        <v>385</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9" t="s">
-        <v>369</v>
+      <c r="A101" s="5" t="s">
+        <v>387</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>370</v>
+        <v>347</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>372</v>
+        <v>389</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="s">
-        <v>373</v>
+      <c r="A102" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>377</v>
+        <v>392</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9" t="s">
-        <v>378</v>
+      <c r="A103" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>381</v>
+        <v>392</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10" t="s">
-        <v>382</v>
+      <c r="A104" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>385</v>
+        <v>392</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="10" t="s">
-        <v>386</v>
+      <c r="A105" s="6" t="s">
+        <v>404</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>387</v>
+        <v>392</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>405</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>389</v>
+        <v>406</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="37.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="s">
-        <v>390</v>
+      <c r="A106" s="5" t="s">
+        <v>408</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>394</v>
+        <v>409</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="s">
-        <v>395</v>
+      <c r="A107" s="5" t="s">
+        <v>413</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>398</v>
+        <v>409</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="s">
-        <v>399</v>
+      <c r="A108" s="5" t="s">
+        <v>417</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="D108" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>402</v>
+        <v>409</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
-        <v>408</v>
+      <c r="A110" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>410</v>
+        <v>427</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>428</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="s">
-        <v>412</v>
+      <c r="A111" s="5" t="s">
+        <v>430</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>415</v>
+        <v>422</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
-        <v>416</v>
+      <c r="A112" s="5" t="s">
+        <v>434</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D112" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="E112" s="13" t="s">
-        <v>420</v>
+        <v>435</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="s">
-        <v>421</v>
+      <c r="A113" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>424</v>
+        <v>435</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
-        <v>425</v>
+      <c r="A114" s="5" t="s">
+        <v>443</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>428</v>
+        <v>435</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E114" s="11" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="s">
-        <v>429</v>
+      <c r="A115" s="5" t="s">
+        <v>447</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>432</v>
+        <v>435</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="D116" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E116" s="13" t="s">
-        <v>436</v>
+      <c r="C116" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="s">
-        <v>437</v>
+      <c r="A117" s="5" t="s">
+        <v>455</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="D117" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>440</v>
+        <v>435</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
-        <v>441</v>
+      <c r="A118" s="5" t="s">
+        <v>459</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="D118" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>444</v>
+        <v>435</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="s">
-        <v>445</v>
+      <c r="A119" s="5" t="s">
+        <v>463</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>448</v>
+        <v>435</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
-        <v>449</v>
+      <c r="A120" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="D120" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>452</v>
+        <v>435</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
-        <v>453</v>
+      <c r="A121" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="D121" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>456</v>
+        <v>435</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="s">
-        <v>457</v>
+      <c r="A122" s="5" t="s">
+        <v>475</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D122" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>460</v>
+        <v>435</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="s">
-        <v>461</v>
+      <c r="A123" s="5" t="s">
+        <v>479</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="D123" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>464</v>
+        <v>435</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="s">
-        <v>465</v>
+      <c r="A124" s="5" t="s">
+        <v>483</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="D124" s="13" t="s">
-        <v>467</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>468</v>
+        <v>435</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9" t="s">
-        <v>469</v>
+      <c r="A125" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="D125" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>472</v>
+        <v>435</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="E125" s="11" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9" t="s">
-        <v>473</v>
+      <c r="A126" s="5" t="s">
+        <v>491</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D126" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>476</v>
+        <v>435</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="D127" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>480</v>
+        <v>435</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>485</v>
+        <v>500</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="D129" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>489</v>
+        <v>500</v>
+      </c>
+      <c r="C129" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="s">
-        <v>490</v>
+      <c r="A130" s="5" t="s">
+        <v>508</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>492</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>493</v>
+        <v>500</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9" t="s">
-        <v>494</v>
+      <c r="A131" s="5" t="s">
+        <v>512</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>497</v>
+        <v>500</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D132" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="E132" s="13" t="s">
-        <v>501</v>
+      <c r="C132" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9" t="s">
-        <v>502</v>
+      <c r="A133" s="5" t="s">
+        <v>520</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="D133" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="C133" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>433</v>
+        <v>451</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>436</v>
+        <v>500</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9" t="s">
-        <v>506</v>
+      <c r="A135" s="5" t="s">
+        <v>524</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="D135" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="E135" s="13" t="s">
-        <v>509</v>
+        <v>500</v>
+      </c>
+      <c r="C135" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="D136" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>480</v>
+        <v>500</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E136" s="11" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>499</v>
-      </c>
-      <c r="D137" s="13" t="s">
-        <v>500</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>501</v>
+        <v>528</v>
+      </c>
+      <c r="C137" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E137" s="11" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="s">
-        <v>511</v>
+      <c r="A138" s="5" t="s">
+        <v>529</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="D138" s="13" t="s">
-        <v>513</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>514</v>
+        <v>528</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9" t="s">
-        <v>515</v>
+      <c r="A139" s="5" t="s">
+        <v>533</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="D139" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>518</v>
+        <v>528</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="D140" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>480</v>
+        <v>528</v>
+      </c>
+      <c r="C140" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9" t="s">
-        <v>519</v>
+      <c r="A141" s="5" t="s">
+        <v>537</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="s">
-        <v>524</v>
+      <c r="A142" s="5" t="s">
+        <v>542</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="s">
-        <v>528</v>
+      <c r="A143" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="s">
-        <v>532</v>
+      <c r="A144" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="s">
-        <v>536</v>
+      <c r="A145" s="5" t="s">
+        <v>554</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>520</v>
-      </c>
       <c r="C146" s="3" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="s">
-        <v>542</v>
+      <c r="A147" s="5" t="s">
+        <v>560</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9" t="s">
-        <v>545</v>
+      <c r="A148" s="5" t="s">
+        <v>563</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9" t="s">
-        <v>549</v>
+      <c r="A149" s="5" t="s">
+        <v>567</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="s">
-        <v>552</v>
+      <c r="A150" s="5" t="s">
+        <v>570</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="E151" s="3"/>
+      <c r="C151" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="E152" s="3"/>
+      <c r="C152" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E154" s="3"/>
+      <c r="C154" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="E155" s="3"/>
+      <c r="C155" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="10" t="s">
-        <v>571</v>
+      <c r="A157" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10" t="s">
-        <v>584</v>
+      <c r="A160" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,1480 +6018,1532 @@
         <v>0</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="E171" s="3"/>
+      <c r="C171" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="E174" s="3"/>
+      <c r="C174" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>636</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>639</v>
+        <v>669</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>640</v>
+        <v>670</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>642</v>
+        <v>672</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="10" t="s">
-        <v>643</v>
+      <c r="A179" s="6" t="s">
+        <v>673</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="10" t="s">
-        <v>647</v>
+      <c r="A181" s="6" t="s">
+        <v>677</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>653</v>
+        <v>683</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>654</v>
+        <v>684</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>655</v>
+        <v>685</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3" t="s">
-        <v>656</v>
+        <v>686</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>657</v>
+        <v>687</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>658</v>
+        <v>688</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="10" t="s">
-        <v>659</v>
+      <c r="A184" s="6" t="s">
+        <v>689</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>660</v>
+        <v>690</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>662</v>
+        <v>691</v>
+      </c>
+      <c r="D184" s="6" t="s">
+        <v>692</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>663</v>
+        <v>693</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
+      <c r="C185" s="6" t="s">
+        <v>695</v>
+      </c>
       <c r="D185" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E185" s="3"/>
+        <v>696</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="61.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="E186" s="3"/>
+      <c r="C186" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="D186" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="70.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="E187" s="3"/>
+      <c r="C187" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="10" t="s">
-        <v>669</v>
+      <c r="A188" s="6" t="s">
+        <v>705</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>671</v>
+        <v>707</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>672</v>
+        <v>708</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="10" t="s">
-        <v>673</v>
+      <c r="A189" s="6" t="s">
+        <v>709</v>
       </c>
       <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
+      <c r="C189" s="3" t="s">
+        <v>710</v>
+      </c>
       <c r="D189" s="3" t="s">
-        <v>674</v>
+        <v>711</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>675</v>
+        <v>712</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>676</v>
+        <v>713</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>678</v>
+        <v>715</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>679</v>
+        <v>716</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>680</v>
+        <v>717</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>681</v>
+        <v>718</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>682</v>
+        <v>719</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>683</v>
+        <v>720</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="10" t="s">
-        <v>684</v>
+      <c r="A192" s="6" t="s">
+        <v>721</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>685</v>
+        <v>722</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>686</v>
+        <v>723</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>687</v>
+        <v>724</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>688</v>
+        <v>725</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>689</v>
+        <v>726</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>690</v>
+        <v>727</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="10" t="s">
-        <v>691</v>
+      <c r="A194" s="6" t="s">
+        <v>728</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>692</v>
+        <v>729</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>692</v>
+        <v>729</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>692</v>
+        <v>729</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>693</v>
+        <v>730</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>694</v>
+        <v>731</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>695</v>
+        <v>732</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>696</v>
+        <v>733</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>699</v>
+        <v>736</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>700</v>
+        <v>737</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>701</v>
+        <v>738</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>702</v>
+        <v>739</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>703</v>
+        <v>740</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="10" t="s">
-        <v>704</v>
+      <c r="A198" s="6" t="s">
+        <v>741</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>705</v>
+        <v>742</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>706</v>
+        <v>743</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>707</v>
+        <v>744</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10" t="s">
-        <v>708</v>
+      <c r="A199" s="6" t="s">
+        <v>745</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>711</v>
+        <v>748</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>712</v>
+        <v>749</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="10" t="s">
-        <v>713</v>
+      <c r="A200" s="6" t="s">
+        <v>750</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>716</v>
+        <v>753</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10" t="s">
-        <v>717</v>
+      <c r="A201" s="6" t="s">
+        <v>754</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>718</v>
+        <v>755</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>719</v>
+        <v>756</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="10" t="s">
-        <v>721</v>
+      <c r="A202" s="6" t="s">
+        <v>758</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>722</v>
+        <v>759</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>722</v>
+        <v>759</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>725</v>
+        <v>762</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>727</v>
+        <v>764</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>722</v>
+        <v>759</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>730</v>
+        <v>767</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>731</v>
+        <v>768</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="10" t="s">
-        <v>732</v>
+      <c r="A205" s="6" t="s">
+        <v>769</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>722</v>
+        <v>759</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="D205" s="10" t="s">
-        <v>734</v>
+        <v>770</v>
+      </c>
+      <c r="D205" s="6" t="s">
+        <v>771</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>735</v>
+        <v>772</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>738</v>
+        <v>775</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>740</v>
+        <v>777</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>741</v>
+        <v>778</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>744</v>
+        <v>781</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>745</v>
+        <v>782</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>746</v>
+        <v>783</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>747</v>
+        <v>784</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>748</v>
+        <v>785</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="10" t="s">
-        <v>749</v>
+      <c r="A209" s="6" t="s">
+        <v>786</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>688</v>
+        <v>725</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>750</v>
+        <v>787</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>751</v>
+        <v>788</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>752</v>
+        <v>789</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>753</v>
+        <v>790</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>754</v>
+        <v>791</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>755</v>
+        <v>792</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>756</v>
+        <v>793</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>757</v>
+        <v>794</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>758</v>
+        <v>795</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>759</v>
+        <v>796</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>760</v>
+        <v>797</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="10" t="s">
-        <v>761</v>
+      <c r="A212" s="6" t="s">
+        <v>798</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>757</v>
+        <v>794</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>762</v>
+        <v>799</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>763</v>
+        <v>800</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>764</v>
+        <v>801</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>752</v>
+        <v>789</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>757</v>
+        <v>794</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>765</v>
+        <v>802</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>754</v>
+        <v>791</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>755</v>
+        <v>792</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>766</v>
+        <v>803</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>757</v>
+        <v>794</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>767</v>
+        <v>804</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>768</v>
+        <v>805</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>769</v>
+        <v>806</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="10" t="s">
-        <v>770</v>
+      <c r="A215" s="6" t="s">
+        <v>807</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>757</v>
+        <v>794</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>771</v>
+        <v>808</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>772</v>
+        <v>809</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>773</v>
+        <v>810</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="10" t="s">
-        <v>774</v>
+      <c r="A216" s="6" t="s">
+        <v>811</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>757</v>
+        <v>794</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>775</v>
+        <v>812</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>776</v>
+        <v>813</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>777</v>
+        <v>814</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="10" t="s">
-        <v>778</v>
+      <c r="A217" s="6" t="s">
+        <v>815</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>757</v>
+        <v>794</v>
       </c>
       <c r="C217" s="8" t="s">
-        <v>779</v>
+        <v>816</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>780</v>
+        <v>817</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>782</v>
+        <v>819</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>783</v>
+        <v>820</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>784</v>
+        <v>821</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>785</v>
+        <v>822</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
-        <v>786</v>
+        <v>823</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>787</v>
+        <v>824</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>788</v>
+        <v>825</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>789</v>
+        <v>826</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
-        <v>790</v>
+        <v>827</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>791</v>
+        <v>828</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>792</v>
+        <v>829</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>793</v>
+        <v>830</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="10" t="s">
-        <v>794</v>
+      <c r="A221" s="6" t="s">
+        <v>831</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>795</v>
+        <v>832</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>796</v>
+        <v>833</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
-        <v>797</v>
+        <v>834</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>798</v>
+        <v>835</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>799</v>
+        <v>836</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="10" t="s">
-        <v>800</v>
+      <c r="A223" s="6" t="s">
+        <v>837</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>801</v>
+        <v>838</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>802</v>
+        <v>839</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>803</v>
+        <v>840</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
-        <v>804</v>
+        <v>841</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>805</v>
+        <v>842</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>806</v>
+        <v>843</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>807</v>
+        <v>844</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
-        <v>808</v>
+        <v>845</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>809</v>
+        <v>846</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>811</v>
+        <v>848</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>812</v>
+        <v>849</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>814</v>
+        <v>851</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>815</v>
+        <v>852</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>816</v>
+        <v>853</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>817</v>
+        <v>854</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>818</v>
+        <v>855</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>819</v>
+        <v>856</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
-        <v>820</v>
+        <v>857</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>821</v>
+        <v>858</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>822</v>
+        <v>859</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="10" t="s">
-        <v>824</v>
+      <c r="A230" s="6" t="s">
+        <v>861</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>826</v>
+        <v>863</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>827</v>
+        <v>864</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>829</v>
+        <v>866</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>830</v>
+        <v>867</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>831</v>
+        <v>868</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
-        <v>832</v>
+        <v>869</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>833</v>
+        <v>870</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>834</v>
+        <v>871</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>835</v>
+        <v>872</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>836</v>
+        <v>873</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>838</v>
+        <v>875</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>839</v>
+        <v>876</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
-        <v>840</v>
+        <v>877</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>841</v>
+        <v>878</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>842</v>
+        <v>879</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>843</v>
+        <v>880</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
-        <v>844</v>
+        <v>881</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>845</v>
+        <v>882</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>846</v>
+        <v>883</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>847</v>
+        <v>884</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
-        <v>848</v>
+        <v>885</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>849</v>
+        <v>886</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>851</v>
+        <v>888</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="10" t="s">
-        <v>852</v>
+      <c r="A237" s="6" t="s">
+        <v>889</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>853</v>
+        <v>890</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>854</v>
+        <v>891</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>855</v>
+        <v>892</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="10" t="s">
-        <v>856</v>
+      <c r="A238" s="6" t="s">
+        <v>893</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>857</v>
+        <v>894</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>858</v>
+        <v>895</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>859</v>
+        <v>896</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>860</v>
+        <v>897</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>861</v>
+        <v>898</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>862</v>
+        <v>899</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>863</v>
+        <v>900</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>864</v>
+        <v>901</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>865</v>
+        <v>902</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>866</v>
+        <v>903</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>867</v>
+        <v>904</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>869</v>
+        <v>906</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>870</v>
+        <v>907</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>871</v>
+        <v>908</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
-        <v>872</v>
+        <v>909</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>873</v>
+        <v>910</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>874</v>
+        <v>911</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>875</v>
+        <v>912</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>876</v>
+        <v>913</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>877</v>
+        <v>914</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>878</v>
+        <v>915</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>879</v>
+        <v>916</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>880</v>
+        <v>917</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>881</v>
+        <v>918</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>882</v>
+        <v>919</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>883</v>
+        <v>920</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
-        <v>884</v>
+        <v>921</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>885</v>
+        <v>922</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>886</v>
+        <v>923</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>887</v>
+        <v>924</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>888</v>
+        <v>925</v>
       </c>
       <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="E246" s="3"/>
+      <c r="C246" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="E246" s="6" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="10" t="s">
-        <v>890</v>
+      <c r="A247" s="6" t="s">
+        <v>929</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>891</v>
+        <v>930</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>892</v>
+        <v>931</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>893</v>
+        <v>932</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="10" t="s">
-        <v>894</v>
+      <c r="A248" s="6" t="s">
+        <v>933</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="C248" s="3"/>
+        <v>934</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>935</v>
+      </c>
       <c r="D248" s="3" t="s">
-        <v>896</v>
+        <v>936</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>897</v>
+        <v>937</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
-        <v>898</v>
+        <v>938</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="C249" s="3"/>
+        <v>934</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>939</v>
+      </c>
       <c r="D249" s="3" t="s">
-        <v>899</v>
+        <v>940</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>900</v>
+        <v>941</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="10" t="s">
-        <v>901</v>
+      <c r="A250" s="6" t="s">
+        <v>942</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="C250" s="3"/>
+        <v>943</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>944</v>
+      </c>
       <c r="D250" s="3" t="s">
-        <v>903</v>
+        <v>945</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>904</v>
+        <v>946</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="10" t="s">
-        <v>905</v>
+      <c r="A251" s="6" t="s">
+        <v>947</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="C251" s="3"/>
+        <v>943</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>948</v>
+      </c>
       <c r="D251" s="3" t="s">
-        <v>906</v>
+        <v>949</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>907</v>
+        <v>950</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>908</v>
+        <v>951</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="C252" s="3"/>
+        <v>952</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>953</v>
+      </c>
       <c r="D252" s="3" t="s">
-        <v>910</v>
+        <v>954</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>911</v>
+        <v>955</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="C253" s="3"/>
+        <v>952</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>956</v>
+      </c>
       <c r="D253" s="3" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="C254" s="3"/>
+        <v>952</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>626</v>
+      </c>
       <c r="D254" s="3" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="C255" s="3"/>
+        <v>952</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>957</v>
+      </c>
       <c r="D255" s="3" t="s">
-        <v>912</v>
+        <v>958</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>913</v>
+        <v>959</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="10" t="s">
-        <v>914</v>
+      <c r="A256" s="6" t="s">
+        <v>960</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="C256" s="3"/>
+        <v>952</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>961</v>
+      </c>
       <c r="D256" s="8" t="s">
-        <v>915</v>
+        <v>962</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>916</v>
+        <v>963</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="5" t="s">
-        <v>917</v>
+        <v>964</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="C257" s="3"/>
+        <v>952</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>965</v>
+      </c>
       <c r="D257" s="8" t="s">
-        <v>918</v>
+        <v>966</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>919</v>
+        <v>967</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="5" t="s">
-        <v>920</v>
+        <v>968</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>969</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>921</v>
+        <v>970</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
